--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -25,6 +25,15 @@
     <style:style style:name="co1" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="64.01pt"/>
     </style:style>
+    <style:style style:name="co2" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="116.56pt"/>
+    </style:style>
+    <style:style style:name="co3" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="135.84pt"/>
+    </style:style>
+    <style:style style:name="co4" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="134.31pt"/>
+    </style:style>
     <style:style style:name="ro1" style:family="table-row">
       <style:table-row-properties style:row-height="12.81pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
@@ -33,6 +42,16 @@
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="Default">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
+    </style:style>
+    <number:date-style style:name="N10037" number:language="en" number:country="US" number:automatic-order="true">
+      <number:month number:style="long"/>
+      <number:text>/</number:text>
+      <number:day number:style="long"/>
+      <number:text>/</number:text>
+      <number:year/>
+    </number:date-style>
+    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N10037">
+      <style:table-cell-properties style:rotation-align="none"/>
     </style:style>
     <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N10127">
       <style:table-cell-properties style:rotation-align="none"/>
@@ -42,7 +61,12 @@
     <office:spreadsheet>
       <table:calculation-settings table:automatic-find-labels="false" table:use-regular-expressions="false" table:use-wildcards="true"/>
       <table:table table:name="Sheet1" table:style-name="ta1">
-        <table:table-column table:style-name="co1" table:number-columns-repeated="14" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co4" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="9" table:default-cell-style-name="Default"/>
         <table:table-column table:style-name="co1" table:default-cell-style-name="ce1"/>
         <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
@@ -114,23 +138,11 @@
           <table:table-cell office:value-type="float" office:value="2002410518" calcext:value-type="float">
             <text:p>2002410518</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>سليم</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>اسماعيل</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>سليم</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>ابو شباب</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="float" office:value="19" calcext:value-type="float">
-            <text:p>19</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>الصف الرابع</text:p>
+          <table:table-cell table:number-columns-repeated="4" office:value-type="string" calcext:value-type="string">
+            <text:p>x</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" office:value-type="float" office:value="1" calcext:value-type="float">
+            <text:p>1</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>الصف الرابع-أ</text:p>
@@ -138,11 +150,11 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>أردني</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="date" office:date-value="2011-08-25" calcext:value-type="date">
-            <text:p>8/25/2011</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>Male</text:p>
+          <table:table-cell table:style-name="ce3" office:value-type="date" office:date-value="2009-09-01" calcext:value-type="date">
+            <text:p>09/01/09</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Female</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro2">
@@ -744,8 +756,8 @@
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="float" office:value="2001941015" calcext:value-type="float">
-            <text:p>2001941015</text:p>
+          <table:table-cell office:value-type="float" office:value="2001543737" calcext:value-type="float">
+            <text:p>2001543737</text:p>
           </table:table-cell>
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>وكالة الغوث الدولية</text:p>
@@ -804,9 +816,9 @@
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
     <meta:creation-date>2020-09-28T17:20:11.859941970</meta:creation-date>
-    <dc:date>2020-09-28T18:30:10.684796529</dc:date>
-    <meta:editing-duration>PT59M34S</meta:editing-duration>
-    <meta:editing-cycles>4</meta:editing-cycles>
+    <dc:date>2020-09-29T10:42:23.597782203</dc:date>
+    <meta:editing-duration>PT5H20M25S</meta:editing-duration>
+    <meta:editing-cycles>10</meta:editing-cycles>
     <meta:generator>LibreOffice/6.0.7.3$Linux_X86_64 LibreOffice_project/00m0$Build-3</meta:generator>
     <meta:document-statistic meta:table-count="1" meta:cell-count="239" meta:object-count="0"/>
   </office:meta>
@@ -819,21 +831,21 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">36124</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">42993</config:config-item>
       <config:config-item config:name="VisibleAreaHeight" config:type="int">7859</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">18</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">15</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">1</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">5</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
@@ -1184,196 +1196,7 @@
       <style:map style:condition="value()&lt;0" style:apply-style-name="N10155P1"/>
       <style:map style:condition="value()=0" style:apply-style-name="N10155P2"/>
     </number:text-style>
-    <number:currency-style style:name="N10156P0" style:volatile="true" number:language="en" number:country="US">
-      <number:currency-symbol/>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N10156" number:language="en" number:country="US">
-      <number:text>(</number:text>
-      <number:currency-symbol/>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10156P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N10157P0" style:volatile="true" number:language="en" number:country="US">
-      <number:currency-symbol/>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N10157" number:language="en" number:country="US">
-      <style:text-properties fo:color="#ff0000"/>
-      <number:text>(</number:text>
-      <number:currency-symbol/>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10157P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N10158P0" style:volatile="true" number:language="en" number:country="US">
-      <number:currency-symbol/>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N10158" number:language="en" number:country="US">
-      <number:text>(</number:text>
-      <number:currency-symbol/>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10158P0"/>
-    </number:currency-style>
-    <number:currency-style style:name="N10159P0" style:volatile="true" number:language="en" number:country="US">
-      <number:currency-symbol/>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N10159" number:language="en" number:country="US">
-      <style:text-properties fo:color="#ff0000"/>
-      <number:text>(</number:text>
-      <number:currency-symbol/>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10159P0"/>
-    </number:currency-style>
-    <number:number-style style:name="N10160P0" style:volatile="true" number:language="en" number:country="US">
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N10160" number:language="en" number:country="US">
-      <style:text-properties fo:color="#ff0000"/>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10160P0"/>
-    </number:number-style>
-    <number:number-style style:name="N10161P0" style:volatile="true" number:language="en" number:country="US">
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N10161" number:language="en" number:country="US">
-      <style:text-properties fo:color="#ff0000"/>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N10161P0"/>
-    </number:number-style>
-    <number:number-style style:name="N10162P0" style:volatile="true" number:language="en" number:country="US">
-      <loext:text> </loext:text>
-      <loext:fill-character> </loext:fill-character>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N10162P1" style:volatile="true" number:language="en" number:country="US">
-      <loext:text> </loext:text>
-      <loext:fill-character> </loext:fill-character>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-    </number:number-style>
-    <number:number-style style:name="N10162P2" style:volatile="true" number:language="en" number:country="US">
-      <loext:text> </loext:text>
-      <loext:fill-character> </loext:fill-character>
-      <number:text>- </number:text>
-    </number:number-style>
-    <number:text-style style:name="N10162" number:language="en" number:country="US">
-      <number:text> </number:text>
-      <number:text-content/>
-      <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N10162P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N10162P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N10162P2"/>
-    </number:text-style>
-    <number:currency-style style:name="N10163P0" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <loext:fill-character> </loext:fill-character>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N10163P1" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <loext:fill-character> </loext:fill-character>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N10163P2" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <loext:fill-character> </loext:fill-character>
-      <number:text>- </number:text>
-    </number:currency-style>
-    <number:text-style style:name="N10163" number:language="en" number:country="US">
-      <number:text> </number:text>
-      <number:text-content/>
-      <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N10163P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N10163P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N10163P2"/>
-    </number:text-style>
-    <number:number-style style:name="N10164P0" style:volatile="true" number:language="en" number:country="US">
-      <loext:text> </loext:text>
-      <loext:fill-character> </loext:fill-character>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:number-style style:name="N10164P1" style:volatile="true" number:language="en" number:country="US">
-      <loext:text> </loext:text>
-      <loext:fill-character> </loext:fill-character>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-    </number:number-style>
-    <number:number-style style:name="N10164P2" style:volatile="true" number:language="en" number:country="US">
-      <loext:text> </loext:text>
-      <loext:fill-character> </loext:fill-character>
-      <number:text>-</number:text>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
-      <number:text> </number:text>
-    </number:number-style>
-    <number:text-style style:name="N10164" number:language="en" number:country="US">
-      <number:text> </number:text>
-      <number:text-content/>
-      <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N10164P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N10164P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N10164P2"/>
-    </number:text-style>
-    <number:currency-style style:name="N10165P0" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <loext:fill-character> </loext:fill-character>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N10165P1" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <loext:fill-character> </loext:fill-character>
-      <number:text>(</number:text>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <number:text>)</number:text>
-    </number:currency-style>
-    <number:currency-style style:name="N10165P2" style:volatile="true" number:language="en" number:country="US">
-      <number:text> </number:text>
-      <number:currency-symbol/>
-      <loext:fill-character> </loext:fill-character>
-      <number:text>-</number:text>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
-      <number:text> </number:text>
-    </number:currency-style>
-    <number:text-style style:name="N10165" number:language="en" number:country="US">
-      <number:text> </number:text>
-      <number:text-content/>
-      <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N10165P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N10165P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N10165P2"/>
-    </number:text-style>
     <number:number-style style:name="N20111" number:language="ar" number:country="SA" number:transliteration-format="١" number:transliteration-language="ar" number:transliteration-country="SA" number:transliteration-style="short">
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1"/>
-    </number:number-style>
-    <number:number-style style:name="N20112" number:language="ar" number:country="SA" number:transliteration-format="١" number:transliteration-language="ar" number:transliteration-country="SA" number:transliteration-style="short">
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1"/>
     </number:number-style>
     <style:style style:name="Default" style:family="table-cell">
@@ -1487,9 +1310,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2020-09-28">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2020-09-29">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="17:31:07.906167928">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="10:41:07.376778502">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
